--- a/Arquivo de Mensagens/Arquivo de mensagens.xlsx
+++ b/Arquivo de Mensagens/Arquivo de mensagens.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubPersonal\SendWhatsAppMessages\Customer Messages Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubPersonal\SendWhatsAppMessages\Arquivo de Mensagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC813D9-576C-45D8-8446-67DBC1DDF4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09C0347-5D85-42C4-9BC1-78B8561CF30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{569289BC-D768-472D-9366-0DDE05FEA49D}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Pablo</t>
   </si>
@@ -558,7 +558,7 @@
   <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,9 +601,7 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="3" t="str">
         <f>"Testing Message for "&amp;A3</f>
         <v>Testing Message for Pedro with valid message</v>
@@ -638,9 +636,7 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="3" t="str">
         <f>"Testing Message for "&amp;A6</f>
         <v>Testing Message for José valid message</v>
@@ -650,9 +646,6 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" s="3" t="str">
         <f>"Testing Message for "&amp;A7</f>
         <v>Testing Message for José wrong number</v>
@@ -662,27 +655,18 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" s="3" t="str">
         <f>"Testing Message for "&amp;A10</f>
         <v>Testing Message for Maria with message</v>
@@ -701,9 +685,7 @@
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="3" t="str">
         <f>"Testing Message for "&amp;A12</f>
         <v>Testing Message for João message</v>
@@ -721,9 +703,6 @@
     <row r="14" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>"A very long text message with a link here for "&amp;A14&amp;"
@@ -736,9 +715,6 @@
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" s="4" t="str">
         <f>"A very long text message with a link here for "&amp;A15&amp;"
  https://www.google.com/"</f>
@@ -751,9 +727,6 @@
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" s="3" t="str">
         <f>"Testing Message for "&amp;A16</f>
         <v>Testing Message for Beltrano</v>
@@ -763,9 +736,6 @@
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" s="3" t="str">
         <f>"Testing Message for "&amp;A17</f>
         <v>Testing Message for Sultano</v>
@@ -776,9 +746,7 @@
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="4" t="str">
         <f>"A very long text message with a link here for "&amp;A18&amp;"
  https://www.instagram.com/"</f>

--- a/Arquivo de Mensagens/Arquivo de mensagens.xlsx
+++ b/Arquivo de Mensagens/Arquivo de mensagens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubPersonal\SendWhatsAppMessages\Arquivo de Mensagens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ee7f36c9e574b0/Documents/GitHub/SendWhatsAppMessages/Arquivo de Mensagens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09C0347-5D85-42C4-9BC1-78B8561CF30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{B09C0347-5D85-42C4-9BC1-78B8561CF30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{192178E4-81E5-4EE9-9EEB-7FCE09EB7A31}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{569289BC-D768-472D-9366-0DDE05FEA49D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569289BC-D768-472D-9366-0DDE05FEA49D}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -27,21 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Pablo</t>
   </si>
@@ -113,6 +104,21 @@
   </si>
   <si>
     <t>Garbage</t>
+  </si>
+  <si>
+    <t>55(71) 9308-2372</t>
+  </si>
+  <si>
+    <t>Mensagem de teste para Maria com numero correto</t>
+  </si>
+  <si>
+    <t>Maria with message and link</t>
+  </si>
+  <si>
+    <t>Mensagem de teste para Maria com numero correto e um link qualquer
+www.youtube.com
+e com icones
+😊❤👌</t>
   </si>
 </sst>
 </file>
@@ -180,16 +186,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -199,6 +202,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -218,7 +227,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Listas"/>
@@ -258,8 +267,16 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -558,57 +575,63 @@
   <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f>"Testing Message for "&amp;A2</f>
-        <v>Testing Message for Pablo</v>
+        <f>"Testing Message for "&amp;A2&amp;" 
+and some icons:
+ 🤦‍♀️🤦‍♂️🤷‍♀️🙌👍"</f>
+        <v>Testing Message for Pablo 
+and some icons:
+ 🤦‍♀️🤦‍♂️🤷‍♀️🙌👍</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C3" s="3" t="str">
         <f>"Testing Message for "&amp;A3</f>
         <v>Testing Message for Pedro with valid message</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -617,7 +640,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -632,48 +655,58 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C6" s="3" t="str">
         <f>"Testing Message for "&amp;A6</f>
         <v>Testing Message for José valid message</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>"Testing Message for "&amp;A7</f>
         <v>Testing Message for José wrong number</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="str">
-        <f>"Testing Message for "&amp;A10</f>
-        <v>Testing Message for Maria with message</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -681,49 +714,52 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="3" t="str">
         <f>"Testing Message for "&amp;A12</f>
         <v>Testing Message for João message</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="str">
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="str">
         <f>"A very long text message with a link here for "&amp;A14&amp;"
  https://www.youtube.com/"</f>
         <v>A very long text message with a link here for Jõao long message
  https://www.youtube.com/</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4" t="str">
+      <c r="C15" s="3" t="str">
         <f>"A very long text message with a link here for "&amp;A15&amp;"
  https://www.google.com/"</f>
         <v>A very long text message with a link here for Fulano
  https://www.google.com/</v>
       </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -732,7 +768,7 @@
         <v>Testing Message for Beltrano</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -740,462 +776,472 @@
         <f>"Testing Message for "&amp;A17</f>
         <v>Testing Message for Sultano</v>
       </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4" t="str">
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="str">
         <f>"A very long text message with a link here for "&amp;A18&amp;"
  https://www.instagram.com/"</f>
         <v>A very long text message with a link here for Sicrano
  https://www.instagram.com/</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C152" s="3"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C166" s="3"/>
     </row>
   </sheetData>
